--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.49593353969124</v>
+        <v>7.079689000000001</v>
       </c>
       <c r="H2">
-        <v>4.49593353969124</v>
+        <v>21.239067</v>
       </c>
       <c r="I2">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="J2">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.77583495225271</v>
+        <v>8.882730333333333</v>
       </c>
       <c r="N2">
-        <v>8.77583495225271</v>
+        <v>26.648191</v>
       </c>
       <c r="O2">
-        <v>0.926691572842731</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="P2">
-        <v>0.926691572842731</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="Q2">
-        <v>39.45557070062763</v>
+        <v>62.88696823086634</v>
       </c>
       <c r="R2">
-        <v>39.45557070062763</v>
+        <v>565.982714077797</v>
       </c>
       <c r="S2">
-        <v>0.367985341759386</v>
+        <v>0.4645698741166204</v>
       </c>
       <c r="T2">
-        <v>0.367985341759386</v>
+        <v>0.4645698741166204</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.49593353969124</v>
+        <v>7.079689000000001</v>
       </c>
       <c r="H3">
-        <v>4.49593353969124</v>
+        <v>21.239067</v>
       </c>
       <c r="I3">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="J3">
-        <v>0.3970958111020147</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.6942360070977091</v>
+        <v>0.008116333333333333</v>
       </c>
       <c r="N3">
-        <v>0.6942360070977091</v>
+        <v>0.024349</v>
       </c>
       <c r="O3">
-        <v>0.07330842715726903</v>
+        <v>0.0008433110770878936</v>
       </c>
       <c r="P3">
-        <v>0.07330842715726903</v>
+        <v>0.0008433110770878937</v>
       </c>
       <c r="Q3">
-        <v>3.121238948771916</v>
+        <v>0.05746111582033334</v>
       </c>
       <c r="R3">
-        <v>3.121238948771916</v>
+        <v>0.517150042383</v>
       </c>
       <c r="S3">
-        <v>0.02911046934262871</v>
+        <v>0.0004244870454758295</v>
       </c>
       <c r="T3">
-        <v>0.02911046934262871</v>
+        <v>0.0004244870454758295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.02018462565816</v>
+        <v>7.079689000000001</v>
       </c>
       <c r="H4">
-        <v>4.02018462565816</v>
+        <v>21.239067</v>
       </c>
       <c r="I4">
-        <v>0.3550760838905127</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="J4">
-        <v>0.3550760838905127</v>
+        <v>0.5033576067109902</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.77583495225271</v>
+        <v>0.7335180000000001</v>
       </c>
       <c r="N4">
-        <v>8.77583495225271</v>
+        <v>2.200554</v>
       </c>
       <c r="O4">
-        <v>0.926691572842731</v>
+        <v>0.07621469316727886</v>
       </c>
       <c r="P4">
-        <v>0.926691572842731</v>
+        <v>0.07621469316727887</v>
       </c>
       <c r="Q4">
-        <v>35.28047675235986</v>
+        <v>5.193079315902001</v>
       </c>
       <c r="R4">
-        <v>35.28047675235986</v>
+        <v>46.73771384311801</v>
       </c>
       <c r="S4">
-        <v>0.3290460146593367</v>
+        <v>0.03836324554889394</v>
       </c>
       <c r="T4">
-        <v>0.3290460146593367</v>
+        <v>0.03836324554889395</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.02018462565816</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H5">
-        <v>4.02018462565816</v>
+        <v>12.176051</v>
       </c>
       <c r="I5">
-        <v>0.3550760838905127</v>
+        <v>0.2885676612136944</v>
       </c>
       <c r="J5">
-        <v>0.3550760838905127</v>
+        <v>0.2885676612136945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6942360070977091</v>
+        <v>8.882730333333333</v>
       </c>
       <c r="N5">
-        <v>0.6942360070977091</v>
+        <v>26.648191</v>
       </c>
       <c r="O5">
-        <v>0.07330842715726903</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="P5">
-        <v>0.07330842715726903</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="Q5">
-        <v>2.790956922312519</v>
+        <v>36.05219251930455</v>
       </c>
       <c r="R5">
-        <v>2.790956922312519</v>
+        <v>324.469732673741</v>
       </c>
       <c r="S5">
-        <v>0.026030069231176</v>
+        <v>0.2663312131511025</v>
       </c>
       <c r="T5">
-        <v>0.026030069231176</v>
+        <v>0.2663312131511026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.408000613680069</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H6">
-        <v>0.408000613680069</v>
+        <v>12.176051</v>
       </c>
       <c r="I6">
-        <v>0.03603597188194495</v>
+        <v>0.2885676612136944</v>
       </c>
       <c r="J6">
-        <v>0.03603597188194495</v>
+        <v>0.2885676612136945</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.77583495225271</v>
+        <v>0.008116333333333333</v>
       </c>
       <c r="N6">
-        <v>8.77583495225271</v>
+        <v>0.024349</v>
       </c>
       <c r="O6">
-        <v>0.926691572842731</v>
+        <v>0.0008433110770878936</v>
       </c>
       <c r="P6">
-        <v>0.926691572842731</v>
+        <v>0.0008433110770878937</v>
       </c>
       <c r="Q6">
-        <v>3.580546046074105</v>
+        <v>0.03294162953322222</v>
       </c>
       <c r="R6">
-        <v>3.580546046074105</v>
+        <v>0.296474665799</v>
       </c>
       <c r="S6">
-        <v>0.033394231462196</v>
+        <v>0.000243352305190855</v>
       </c>
       <c r="T6">
-        <v>0.033394231462196</v>
+        <v>0.0002433523051908551</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -841,57 +841,57 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.408000613680069</v>
+        <v>4.058683666666667</v>
       </c>
       <c r="H7">
-        <v>0.408000613680069</v>
+        <v>12.176051</v>
       </c>
       <c r="I7">
-        <v>0.03603597188194495</v>
+        <v>0.2885676612136944</v>
       </c>
       <c r="J7">
-        <v>0.03603597188194495</v>
+        <v>0.2885676612136945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6942360070977091</v>
+        <v>0.7335180000000001</v>
       </c>
       <c r="N7">
-        <v>0.6942360070977091</v>
+        <v>2.200554</v>
       </c>
       <c r="O7">
-        <v>0.07330842715726903</v>
+        <v>0.07621469316727886</v>
       </c>
       <c r="P7">
-        <v>0.07330842715726903</v>
+        <v>0.07621469316727887</v>
       </c>
       <c r="Q7">
-        <v>0.283248716934666</v>
+        <v>2.977117525806001</v>
       </c>
       <c r="R7">
-        <v>0.283248716934666</v>
+        <v>26.79405773225401</v>
       </c>
       <c r="S7">
-        <v>0.002641740419748957</v>
+        <v>0.021993095757401</v>
       </c>
       <c r="T7">
-        <v>0.002641740419748957</v>
+        <v>0.021993095757401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.39791840694383</v>
+        <v>0.463315</v>
       </c>
       <c r="H8">
-        <v>2.39791840694383</v>
+        <v>1.389945</v>
       </c>
       <c r="I8">
-        <v>0.2117921331255275</v>
+        <v>0.03294115455541936</v>
       </c>
       <c r="J8">
-        <v>0.2117921331255275</v>
+        <v>0.03294115455541936</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.77583495225271</v>
+        <v>8.882730333333333</v>
       </c>
       <c r="N8">
-        <v>8.77583495225271</v>
+        <v>26.648191</v>
       </c>
       <c r="O8">
-        <v>0.926691572842731</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="P8">
-        <v>0.926691572842731</v>
+        <v>0.9229419957556332</v>
       </c>
       <c r="Q8">
-        <v>21.0437361683078</v>
+        <v>4.115502204388333</v>
       </c>
       <c r="R8">
-        <v>21.0437361683078</v>
+        <v>37.03951983949499</v>
       </c>
       <c r="S8">
-        <v>0.1962659849618121</v>
+        <v>0.03040277492787351</v>
       </c>
       <c r="T8">
-        <v>0.1962659849618121</v>
+        <v>0.03040277492787351</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.463315</v>
+      </c>
+      <c r="H9">
+        <v>1.389945</v>
+      </c>
+      <c r="I9">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="J9">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.008116333333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.024349</v>
+      </c>
+      <c r="O9">
+        <v>0.0008433110770878936</v>
+      </c>
+      <c r="P9">
+        <v>0.0008433110770878937</v>
+      </c>
+      <c r="Q9">
+        <v>0.003760418978333333</v>
+      </c>
+      <c r="R9">
+        <v>0.033843770805</v>
+      </c>
+      <c r="S9">
+        <v>2.777964052864947E-05</v>
+      </c>
+      <c r="T9">
+        <v>2.777964052864948E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.39791840694383</v>
-      </c>
-      <c r="H9">
-        <v>2.39791840694383</v>
-      </c>
-      <c r="I9">
-        <v>0.2117921331255275</v>
-      </c>
-      <c r="J9">
-        <v>0.2117921331255275</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.6942360070977091</v>
-      </c>
-      <c r="N9">
-        <v>0.6942360070977091</v>
-      </c>
-      <c r="O9">
-        <v>0.07330842715726903</v>
-      </c>
-      <c r="P9">
-        <v>0.07330842715726903</v>
-      </c>
-      <c r="Q9">
-        <v>1.664721300182784</v>
-      </c>
-      <c r="R9">
-        <v>1.664721300182784</v>
-      </c>
-      <c r="S9">
-        <v>0.01552614816371536</v>
-      </c>
-      <c r="T9">
-        <v>0.01552614816371536</v>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.463315</v>
+      </c>
+      <c r="H10">
+        <v>1.389945</v>
+      </c>
+      <c r="I10">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="J10">
+        <v>0.03294115455541936</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7335180000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.200554</v>
+      </c>
+      <c r="O10">
+        <v>0.07621469316727886</v>
+      </c>
+      <c r="P10">
+        <v>0.07621469316727887</v>
+      </c>
+      <c r="Q10">
+        <v>0.3398498921700001</v>
+      </c>
+      <c r="R10">
+        <v>3.058649029530001</v>
+      </c>
+      <c r="S10">
+        <v>0.002510599987017197</v>
+      </c>
+      <c r="T10">
+        <v>0.002510599987017197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.463241333333333</v>
+      </c>
+      <c r="H11">
+        <v>7.389724</v>
+      </c>
+      <c r="I11">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="J11">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>8.882730333333333</v>
+      </c>
+      <c r="N11">
+        <v>26.648191</v>
+      </c>
+      <c r="O11">
+        <v>0.9229419957556332</v>
+      </c>
+      <c r="P11">
+        <v>0.9229419957556332</v>
+      </c>
+      <c r="Q11">
+        <v>21.88030850992044</v>
+      </c>
+      <c r="R11">
+        <v>196.922776589284</v>
+      </c>
+      <c r="S11">
+        <v>0.1616381335600367</v>
+      </c>
+      <c r="T11">
+        <v>0.1616381335600367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.463241333333333</v>
+      </c>
+      <c r="H12">
+        <v>7.389724</v>
+      </c>
+      <c r="I12">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="J12">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.008116333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.024349</v>
+      </c>
+      <c r="O12">
+        <v>0.0008433110770878936</v>
+      </c>
+      <c r="P12">
+        <v>0.0008433110770878937</v>
+      </c>
+      <c r="Q12">
+        <v>0.01999248774177778</v>
+      </c>
+      <c r="R12">
+        <v>0.179932389676</v>
+      </c>
+      <c r="S12">
+        <v>0.0001476920858925596</v>
+      </c>
+      <c r="T12">
+        <v>0.0001476920858925596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.463241333333333</v>
+      </c>
+      <c r="H13">
+        <v>7.389724</v>
+      </c>
+      <c r="I13">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="J13">
+        <v>0.175133577519896</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7335180000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.200554</v>
+      </c>
+      <c r="O13">
+        <v>0.07621469316727886</v>
+      </c>
+      <c r="P13">
+        <v>0.07621469316727887</v>
+      </c>
+      <c r="Q13">
+        <v>1.806831856344</v>
+      </c>
+      <c r="R13">
+        <v>16.261486707096</v>
+      </c>
+      <c r="S13">
+        <v>0.01334775187396672</v>
+      </c>
+      <c r="T13">
+        <v>0.01334775187396672</v>
       </c>
     </row>
   </sheetData>
